--- a/scratch-vs-spx.xlsx
+++ b/scratch-vs-spx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12000" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Motiion" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Variables" sheetId="8" r:id="rId7"/>
     <sheet name="Pen" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319">
   <si>
     <t>Scratch</t>
   </si>
@@ -128,9 +128,6 @@
 SpriteName | SpriteObj</t>
   </si>
   <si>
-    <t>Animation effect is not implemented</t>
-  </si>
-  <si>
     <t>glide N secs to x: X, y: Y</t>
   </si>
   <si>
@@ -239,53 +236,28 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">S = 
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>LeftRight</t>
+      <t xml:space="preserve">LeftRight |
+None |
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> |
-</t>
+      <t>Normal</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>None</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> |
-Normal</t>
-    </r>
   </si>
   <si>
     <t>Not implemented, only supports Normal</t>
@@ -307,6 +279,15 @@
   </si>
   <si>
     <t>heading</t>
+  </si>
+  <si>
+    <t>costumeWidth</t>
+  </si>
+  <si>
+    <t>costumeHeight</t>
+  </si>
+  <si>
+    <t>bounds</t>
   </si>
   <si>
     <t>say V for N seconds</t>
@@ -338,13 +319,7 @@
     <t>think V, N</t>
   </si>
   <si>
-    <t>Currently equivalent to say V, N</t>
-  </si>
-  <si>
     <t>think V</t>
-  </si>
-  <si>
-    <t>Currently equivalent to say V</t>
   </si>
   <si>
     <t>switch costume to N</t>
@@ -425,6 +400,12 @@
   <si>
     <t>prevScene
 prevScene Wait</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Camera allow we create big scenes</t>
   </si>
   <si>
     <t>change size by N %</t>
@@ -463,7 +444,9 @@
     <t>changeEffect G, N</t>
   </si>
   <si>
-    <t>Not implemented, high priority is color and brightness effects</t>
+    <t>G =
+ColorEffect |
+BrightnessEffect</t>
   </si>
   <si>
     <t>set G effect to N</t>
@@ -476,9 +459,6 @@
   </si>
   <si>
     <t>clearGraphEffects</t>
-  </si>
-  <si>
-    <t>Not implemented</t>
   </si>
   <si>
     <t>show</t>
@@ -586,6 +566,9 @@
   </si>
   <si>
     <t>changeEffect S, N</t>
+  </si>
+  <si>
+    <t>Not implemented</t>
   </si>
   <si>
     <t>set S effect to N</t>
@@ -780,6 +763,7 @@
     <t>X =
 All |
 AllSprites |
+AllOtherScripts |
 ThisSprite |
 ThisScript 
 OtherScriptsInSprite</t>
@@ -847,6 +831,9 @@
 mouse-pointer |
 edge |
 SpriteName</t>
+  </si>
+  <si>
+    <t>touching(O)</t>
   </si>
   <si>
     <t>O =
@@ -880,6 +867,9 @@
     <t>Color = color</t>
   </si>
   <si>
+    <t>touchingColor(Color)</t>
+  </si>
+  <si>
     <t>color C1 is touching C2?</t>
   </si>
   <si>
@@ -944,6 +934,12 @@
   </si>
   <si>
     <t>mouseY</t>
+  </si>
+  <si>
+    <t>mouseHitItem</t>
+  </si>
+  <si>
+    <t>The sprite hit by mouse</t>
   </si>
   <si>
     <t>set drag mode X</t>
@@ -1176,10 +1172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1203,19 +1199,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1226,8 +1220,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1242,9 +1243,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1258,11 +1273,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,21 +1326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1306,34 +1343,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1341,21 +1350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1374,7 +1369,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,25 +1447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,19 +1465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,19 +1483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1495,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,61 +1531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,13 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,6 +1587,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1616,32 +1652,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1660,177 +1675,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1852,6 +1847,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1861,8 +1862,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1938,7 +1945,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>1270</xdr:rowOff>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2291,7 +2298,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>52705</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2381,8 +2388,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>2988945</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2811145</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2852,10 +2859,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F3:J22"/>
+  <dimension ref="F3:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2970,204 +2977,233 @@
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" ht="42" spans="6:10">
       <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" ht="28" spans="6:10">
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="70" spans="6:10">
       <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="J12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="28" spans="6:10">
       <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="28" spans="6:10">
       <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="28" spans="6:10">
       <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" ht="28" spans="6:10">
       <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" ht="28" spans="6:10">
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" ht="68" spans="6:10">
+    <row r="19" ht="56" spans="6:10">
       <c r="F19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="J19" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
+    <row r="23" spans="6:10">
+      <c r="F23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="6:10">
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="6:10">
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3178,10 +3214,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F3:J31"/>
+  <dimension ref="F3:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3214,67 +3250,63 @@
     </row>
     <row r="4" ht="28" spans="6:10">
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="28" spans="6:10">
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" ht="70" spans="6:10">
       <c r="F8" s="1" t="s">
@@ -3304,7 +3336,7 @@
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="5" t="s">
@@ -3315,7 +3347,7 @@
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5" t="s">
@@ -3344,11 +3376,11 @@
       </c>
     </row>
     <row r="13" ht="28" spans="6:10">
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="9" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -3357,7 +3389,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="28" spans="6:10">
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3371,85 +3403,85 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" ht="28" spans="6:10">
-      <c r="F15" s="1" t="s">
+    <row r="15" spans="6:10">
+      <c r="F15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" ht="28" spans="6:10">
       <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" ht="126" spans="6:10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="6:10">
       <c r="F17" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>107</v>
+      <c r="J17" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" ht="126" spans="6:10">
       <c r="F18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" ht="126" spans="6:10">
       <c r="F19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="H19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1" t="s">
+      <c r="I19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="6:10">
+      <c r="F20" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="20" spans="6:10">
-      <c r="F20" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I20" s="2"/>
@@ -3459,121 +3491,119 @@
       <c r="F21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="8"/>
+        <v>117</v>
+      </c>
+      <c r="I23" s="10"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="6:10">
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="6:10">
+      <c r="F27" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="6:10">
-      <c r="F27" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="6:10">
-      <c r="F28" s="10" t="s">
-        <v>128</v>
+      <c r="F28" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="6:10">
-      <c r="F29" s="10" t="s">
-        <v>130</v>
+      <c r="F29" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="6:10">
-      <c r="F30" s="5" t="s">
-        <v>132</v>
+      <c r="F30" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="6:10">
+      <c r="F31" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="6:10">
-      <c r="F31" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
@@ -3581,7 +3611,20 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10">
+      <c r="F32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
         <v>135</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3643,7 @@
   <dimension ref="E3:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3632,132 +3675,132 @@
     </row>
     <row r="4" ht="28" spans="5:9">
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" ht="28" spans="5:9">
       <c r="E5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" ht="56" spans="5:9">
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" ht="56" spans="5:9">
       <c r="E8" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>152</v>
+      <c r="G10" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="4" t="s">
-        <v>154</v>
+      <c r="G11" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="4" t="s">
-        <v>155</v>
+      <c r="G12" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3810,157 +3853,157 @@
     </row>
     <row r="4" spans="6:10">
       <c r="F4" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="42" spans="6:10">
       <c r="F6" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="28" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="28" spans="6:10">
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="28" spans="6:10">
       <c r="F12" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="28" spans="6:10">
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="6:10">
       <c r="F14" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="6:10">
       <c r="F15" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3973,8 +4016,8 @@
   </sheetPr>
   <dimension ref="F3:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4008,192 +4051,192 @@
     </row>
     <row r="4" spans="6:10">
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" ht="42" spans="6:10">
       <c r="F5" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="42" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="42" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="70" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="42" spans="6:10">
       <c r="F10" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" ht="84" spans="6:10">
+    <row r="11" ht="98" spans="6:10">
       <c r="F11" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" ht="28" spans="6:10">
       <c r="F12" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="28" spans="6:10">
       <c r="F13" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" ht="28" spans="6:10">
       <c r="F14" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" ht="28" spans="6:10">
       <c r="F15" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" ht="56" spans="6:10">
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" ht="98" spans="6:10">
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4204,10 +4247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F2:J21"/>
+  <dimension ref="F2:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4240,265 +4283,276 @@
     </row>
     <row r="3" ht="84" spans="6:10">
       <c r="F3" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" ht="84" spans="6:10">
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" ht="28" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" ht="56" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" ht="112" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="6:10">
       <c r="F12" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="6:10">
       <c r="F13" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" ht="42" spans="6:10">
-      <c r="F14" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>50</v>
+    <row r="14" spans="6:10">
+      <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="6:10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="6:10">
       <c r="F15" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="6:10">
-      <c r="F16" s="5" t="s">
-        <v>250</v>
+      <c r="F16" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="6" t="s">
-        <v>250</v>
+      <c r="H16" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" ht="238" spans="6:10">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10">
       <c r="F18" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6" t="s">
+        <v>258</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" ht="56" spans="6:10">
+      <c r="J18" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" ht="238" spans="6:10">
       <c r="F19" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="6:10">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" ht="56" spans="6:10">
       <c r="F20" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="6:10">
       <c r="F21" s="5" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="6" t="s">
-        <v>260</v>
-      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="1" t="s">
-        <v>112</v>
+      <c r="J21" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
+      <c r="F22" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4557,44 +4611,44 @@
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -4608,159 +4662,159 @@
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="42" spans="6:10">
       <c r="F12" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="6:10">
       <c r="F13" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="42" spans="6:10">
       <c r="F14" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="42" spans="6:10">
       <c r="F15" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" ht="42" spans="6:10">
       <c r="F16" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4807,116 +4861,116 @@
     </row>
     <row r="4" ht="42" spans="6:10">
       <c r="F4" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" ht="70" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" ht="70" spans="6:10">
       <c r="F10" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="6:10">
       <c r="F12" s="3" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/scratch-vs-spx.xlsx
+++ b/scratch-vs-spx.xlsx
@@ -236,6 +236,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">S = 
 </t>
     </r>
@@ -1172,10 +1178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1213,53 +1219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,9 +1236,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1288,31 +1296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,21 +1312,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1369,7 +1375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,7 +1387,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,13 +1435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,61 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1465,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,7 +1537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,49 +1555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,26 +1584,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1619,11 +1625,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1646,32 +1676,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,142 +1686,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1825,7 +1831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1846,12 +1852,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2977,7 +2977,7 @@
       <c r="G9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2992,7 +2992,7 @@
       <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -3125,10 +3125,10 @@
       <c r="G19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="12" t="s">
         <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -3285,7 +3285,7 @@
       <c r="G6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -3300,7 +3300,7 @@
       <c r="G7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -3376,11 +3376,11 @@
       </c>
     </row>
     <row r="13" ht="28" spans="6:10">
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>92</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -3389,7 +3389,7 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="28" spans="6:10">
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>95</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3404,7 +3404,7 @@
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="6:10">
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="2"/>
@@ -3481,7 +3481,7 @@
         <v>112</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I20" s="2"/>
@@ -3517,7 +3517,7 @@
       <c r="H23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="6:10">
@@ -3528,7 +3528,7 @@
       <c r="H24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="6:10">
@@ -3558,7 +3558,7 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="6:10">
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>125</v>
       </c>
       <c r="G27" s="1"/>
@@ -3569,7 +3569,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="6:10">
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>127</v>
       </c>
       <c r="G28" s="1"/>
@@ -3580,7 +3580,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="6:10">
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="11" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="1"/>
@@ -3591,7 +3591,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="6:10">
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>131</v>
       </c>
       <c r="G30" s="1"/>
@@ -3762,7 +3762,7 @@
         <v>153</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>154</v>
       </c>
       <c r="H10" s="2"/>
@@ -3773,7 +3773,7 @@
         <v>155</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>156</v>
       </c>
       <c r="H11" s="2"/>
@@ -3784,7 +3784,7 @@
         <v>157</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>157</v>
       </c>
       <c r="H12" s="2"/>
@@ -4249,8 +4249,8 @@
   </sheetPr>
   <dimension ref="F2:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4320,15 +4320,13 @@
       <c r="G5" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="3" t="s">
         <v>229</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="28" spans="6:10">
       <c r="F6" s="2" t="s">
@@ -4473,7 +4471,7 @@
         <v>255</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="3" t="s">
         <v>255</v>
       </c>
       <c r="I16" s="2"/>
@@ -4970,7 +4968,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/scratch-vs-spx.xlsx
+++ b/scratch-vs-spx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12000" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Motiion" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
     <t>Scratch</t>
   </si>
@@ -266,9 +266,6 @@
     </r>
   </si>
   <si>
-    <t>Not implemented, only supports Normal</t>
-  </si>
-  <si>
     <t>x position</t>
   </si>
   <si>
@@ -1178,10 +1175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1211,9 +1208,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,7 +1224,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,15 +1276,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,7 +1308,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,52 +1324,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1325,31 +1344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,12 +1372,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1388,6 +1379,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,133 +1516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,13 +1534,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1584,17 +1581,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,26 +1629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1658,16 +1644,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1681,153 +1667,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2861,8 +2858,8 @@
   </sheetPr>
   <dimension ref="F3:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3131,39 +3128,37 @@
       <c r="I19" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="J19" s="2"/>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3174,7 +3169,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3185,7 +3180,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -3196,7 +3191,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -3250,86 +3245,86 @@
     </row>
     <row r="4" ht="28" spans="6:10">
       <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="28" spans="6:10">
       <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="70" spans="6:10">
       <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3340,7 +3335,7 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
@@ -3351,55 +3346,55 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="84" spans="6:10">
       <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" ht="28" spans="6:10">
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="28" spans="6:10">
       <c r="F14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -3409,209 +3404,209 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="28" spans="6:10">
       <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" ht="28" spans="6:10">
       <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="126" spans="6:10">
       <c r="F18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" ht="126" spans="6:10">
       <c r="F19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="6:10">
       <c r="F23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="6:10">
       <c r="F24" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="6:10">
       <c r="F25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="6:10">
       <c r="F26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="6:10">
       <c r="F27" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="6:10">
       <c r="F28" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="6:10">
       <c r="F29" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="6:10">
       <c r="F30" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="6:10">
       <c r="F31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="6:10">
@@ -3620,11 +3615,11 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3675,124 +3670,124 @@
     </row>
     <row r="4" ht="28" spans="5:9">
       <c r="E4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" ht="28" spans="5:9">
       <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="5:9">
       <c r="E6" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" ht="56" spans="5:9">
       <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" ht="56" spans="5:9">
       <c r="E8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="4" t="s">
@@ -3800,7 +3795,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3853,68 +3848,68 @@
     </row>
     <row r="4" spans="6:10">
       <c r="F4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="42" spans="6:10">
       <c r="F6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="28" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="28" spans="6:10">
       <c r="F8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
@@ -3922,12 +3917,12 @@
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="4" t="s">
@@ -3935,16 +3930,16 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
@@ -3955,13 +3950,13 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="13" ht="28" spans="6:10">
@@ -3970,33 +3965,33 @@
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="6:10">
       <c r="F14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="6:10">
       <c r="F15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -4051,148 +4046,148 @@
     </row>
     <row r="4" spans="6:10">
       <c r="F4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" ht="42" spans="6:10">
       <c r="F5" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="42" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="42" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="70" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" ht="42" spans="6:10">
       <c r="F10" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" ht="98" spans="6:10">
       <c r="F11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="12" ht="28" spans="6:10">
       <c r="F12" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" ht="28" spans="6:10">
       <c r="F13" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" ht="28" spans="6:10">
       <c r="F14" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" ht="28" spans="6:10">
       <c r="F15" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" ht="56" spans="6:10">
@@ -4201,11 +4196,11 @@
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" ht="98" spans="6:10">
@@ -4214,11 +4209,11 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="6:10">
@@ -4227,11 +4222,11 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4249,8 +4244,8 @@
   </sheetPr>
   <dimension ref="F2:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4283,19 +4278,19 @@
     </row>
     <row r="3" ht="84" spans="6:10">
       <c r="F3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="4" ht="84" spans="6:10">
@@ -4304,136 +4299,136 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="28" spans="6:10">
       <c r="F6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" ht="56" spans="6:10">
       <c r="F7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" ht="112" spans="6:10">
       <c r="F8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="6:10">
       <c r="F9" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="6:10">
       <c r="F12" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="6:10">
       <c r="F13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
@@ -4444,113 +4439,113 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" ht="42" spans="6:10">
       <c r="F15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="6:10">
       <c r="F16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" ht="238" spans="6:10">
       <c r="F19" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" ht="56" spans="6:10">
       <c r="F20" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" ht="28" spans="6:10">
       <c r="F21" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="6:10">
       <c r="F22" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4609,44 +4604,44 @@
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
@@ -4660,102 +4655,102 @@
     </row>
     <row r="10" spans="6:10">
       <c r="F10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" ht="42" spans="6:10">
       <c r="F12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="6:10">
       <c r="F13" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="42" spans="6:10">
       <c r="F14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="42" spans="6:10">
       <c r="F15" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>290</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" ht="42" spans="6:10">
       <c r="F16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>292</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="4" t="s">
@@ -4763,49 +4758,49 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="6:10">
       <c r="F18" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="6:10">
       <c r="F19" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="6:10">
       <c r="F20" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="6:10">
       <c r="F21" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
@@ -4859,109 +4854,109 @@
     </row>
     <row r="4" ht="42" spans="6:10">
       <c r="F4" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="6:10">
       <c r="F5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="6:10">
       <c r="F6" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="6:10">
       <c r="F7" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="6:10">
       <c r="F8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" ht="70" spans="6:10">
       <c r="F9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="70" spans="6:10">
       <c r="F10" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="6:10">
       <c r="F11" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="6:10">
       <c r="F12" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
